--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail3 Features.xlsx
@@ -5123,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5135,28 +5135,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5177,115 +5175,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5302,72 +5290,66 @@
         <v>1.73835593647529e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6645819537388902</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9051378831831363</v>
+        <v>4.345505112428142e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.03836051921358582</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.345505112428142e-06</v>
+        <v>0.09759275923868685</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03836051921358582</v>
+        <v>0.01099537246282905</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.09759275923868685</v>
+        <v>1.912580248262727</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01099537246282905</v>
+        <v>2.428831360683257</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948638770890327</v>
+        <v>4.531082813804267</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.428831360683257</v>
+        <v>3.111001635313425e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.531082813804267</v>
+        <v>1221994348.184061</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.111001635313425e-16</v>
+        <v>9.808546566319807e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1221994348.184061</v>
+        <v>464.5565993702459</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.808546566319807e-08</v>
+        <v>0.0001589950992055765</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>464.5565993702459</v>
+        <v>13.25981110912883</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001589950992055765</v>
+        <v>1.096670550878374</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.25981110912883</v>
+        <v>0.02795493024294268</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.096670550878374</v>
+        <v>4.400943409133673</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02795493024294268</v>
+        <v>0.9614677400542698</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.400943409133673</v>
+        <v>0.9026106269364518</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9614677400542698</v>
+        <v>171</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9026106269364518</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.943609333076261</v>
       </c>
     </row>
@@ -5382,72 +5364,66 @@
         <v>1.788966541369368e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6112868211262895</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.022872100060914</v>
+        <v>4.339014689583457e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.0353332101736638</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.339014689583457e-06</v>
+        <v>0.09527171478503697</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0353332101736638</v>
+        <v>0.01032492941106272</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09527171478503697</v>
+        <v>1.90907065241439</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01032492941106272</v>
+        <v>2.420073882905901</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.945876543107295</v>
+        <v>4.193346711202753</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.420073882905901</v>
+        <v>4.20119589267415e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.193346711202753</v>
+        <v>901152533.8529273</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.20119589267415e-16</v>
+        <v>1.330479490771939e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>901152533.8529273</v>
+        <v>341.1689890538947</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.330479490771939e-07</v>
+        <v>0.0001927681673991303</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>341.1689890538947</v>
+        <v>13.96913967905638</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001927681673991303</v>
+        <v>1.013423955086594</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.96913967905638</v>
+        <v>0.03761617554442526</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.013423955086594</v>
+        <v>3.570350427944727</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03761617554442526</v>
+        <v>0.9623658688569665</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.570350427944727</v>
+        <v>0.910917196830906</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9623658688569665</v>
+        <v>140</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.910917196830906</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.318809564552605</v>
       </c>
     </row>
@@ -5462,72 +5438,66 @@
         <v>1.833234924895992e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5545422641942418</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.137366029750349</v>
+        <v>4.332840311114922e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.03289832117127776</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.332840311114922e-06</v>
+        <v>0.09401835092156267</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03289832117127776</v>
+        <v>0.009921295198495621</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09401835092156267</v>
+        <v>1.908536129579685</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.009921295198495621</v>
+        <v>2.282597891605369</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.943579969540104</v>
+        <v>4.30843197612699</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.282597891605369</v>
+        <v>5.550725127726547e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.30843197612699</v>
+        <v>675380735.6385558</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.550725127726547e-16</v>
+        <v>1.775879045208866e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>675380735.6385558</v>
+        <v>253.1902975433985</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.775879045208866e-07</v>
+        <v>0.0001998201242963714</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>253.1902975433985</v>
+        <v>13.93334416382736</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001998201242963714</v>
+        <v>0.9780006954450413</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.93334416382736</v>
+        <v>0.03879269519386546</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.9780006954450413</v>
+        <v>3.154910709352891</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03879269519386546</v>
+        <v>0.9623790129435185</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.154910709352891</v>
+        <v>0.971074903410611</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9623790129435185</v>
+        <v>130</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.971074903410611</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.409964767768198</v>
       </c>
     </row>
@@ -5542,72 +5512,66 @@
         <v>1.869721417627286e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4939014052290332</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.244416485920697</v>
+        <v>4.326965279661752e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.0304380378318413</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.326965279661752e-06</v>
+        <v>0.09408683138939057</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0304380378318413</v>
+        <v>0.00977749486037041</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09408683138939057</v>
+        <v>1.905767334929292</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.00977749486037041</v>
+        <v>2.06941456308452</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.940294481425746</v>
+        <v>4.295271854101317</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.06941456308452</v>
+        <v>9.057590161191346e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.295271854101317</v>
+        <v>407678830.4387523</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.057590161191346e-16</v>
+        <v>2.938660819979725e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>407678830.4387523</v>
+        <v>150.5389860719405</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.938660819979725e-07</v>
+        <v>0.0001944451653058349</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>150.5389860719405</v>
+        <v>13.53440597295208</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001944451653058349</v>
+        <v>0.9919047938350878</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.53440597295208</v>
+        <v>0.03561849358318203</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9919047938350878</v>
+        <v>3.133997026960354</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03561849358318203</v>
+        <v>0.9612852240019518</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.133997026960354</v>
+        <v>1.093676735517536</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9612852240019518</v>
+        <v>102</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.093676735517536</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.051047708997835</v>
       </c>
     </row>
@@ -5622,72 +5586,66 @@
         <v>1.896954049571825e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4306412233466907</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.338323310615668</v>
+        <v>4.321512948332571e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02728897063698324</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.321512948332571e-06</v>
+        <v>0.09646258010027231</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02728897063698324</v>
+        <v>0.01004660484396219</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09646258010027231</v>
+        <v>1.907436843738905</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01004660484396219</v>
+        <v>1.890199473722033</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.93789916491965</v>
+        <v>4.340230238309247</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.890199473722033</v>
+        <v>1.638307881010658e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.340230238309247</v>
+        <v>226209561.0807831</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.638307881010658e-15</v>
+        <v>5.297862702858254e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>226209561.0807831</v>
+        <v>83.83346843590834</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.297862702858254e-07</v>
+        <v>0.0001972946086888718</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>83.83346843590834</v>
+        <v>13.89521038332945</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001972946086888718</v>
+        <v>1.051898932529522</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.89521038332945</v>
+        <v>0.03809302582859904</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.051898932529522</v>
+        <v>3.299869576107392</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03809302582859904</v>
+        <v>0.9610108299116671</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.299869576107392</v>
+        <v>1.177497111535231</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610108299116671</v>
+        <v>83</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.177497111535231</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.909566730799186</v>
       </c>
     </row>
@@ -5702,72 +5660,66 @@
         <v>1.913466216895279e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3678497696966787</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.410550572484096</v>
+        <v>4.316662310757574e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.0234439417263065</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.316662310757574e-06</v>
+        <v>0.102438021353866</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0234439417263065</v>
+        <v>0.01103604239980894</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.102438021353866</v>
+        <v>1.895062925355426</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01103604239980894</v>
+        <v>1.729159048743645</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.918457475948237</v>
+        <v>4.367680140282952</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.729159048743645</v>
+        <v>3.180134825402561e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.367680140282952</v>
+        <v>115593694.5905182</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.180134825402561e-15</v>
+        <v>1.034085298249295e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>115593694.5905182</v>
+        <v>42.49265061234052</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.034085298249295e-06</v>
+        <v>0.0002353599082661071</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>42.49265061234052</v>
+        <v>13.64597218105848</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002353599082661071</v>
+        <v>1.175690662431173</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.64597218105848</v>
+        <v>0.04382697027849523</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.175690662431173</v>
+        <v>2.922671090166404</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.04382697027849523</v>
+        <v>0.9589988611095543</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.922671090166404</v>
+        <v>1.283300593083627</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9589988611095543</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.283300593083627</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.148961060386612</v>
       </c>
     </row>
@@ -5782,72 +5734,66 @@
         <v>1.918793867127276e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3104070108170391</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.452266960480369</v>
+        <v>4.31249600548955e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02048714420989575</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.31249600548955e-06</v>
+        <v>0.1082810196711464</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02048714420989575</v>
+        <v>0.01213950156435158</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1082810196711464</v>
+        <v>1.767896066815831</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01213950156435158</v>
+        <v>1.414789905346282</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.761364541591669</v>
+        <v>13.02293243752488</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.414789905346282</v>
+        <v>8.15520512384299e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>13.02293243752488</v>
+        <v>292293908.9358954</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.15520512384299e-15</v>
+        <v>3.636540307099108e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>292293908.9358954</v>
+        <v>696.7458965394654</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.636540307099108e-07</v>
+        <v>0.0001895194153677545</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>696.7458965394654</v>
+        <v>10.69275336153187</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001895194153677545</v>
+        <v>1.499447866702755</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.69275336153187</v>
+        <v>0.02166869751395559</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.499447866702755</v>
+        <v>3.469259831299507</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02166869751395559</v>
+        <v>0.9597783154456035</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.469259831299507</v>
+        <v>1.270771021549738</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9597783154456035</v>
+        <v>9</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.270771021549738</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.991662380768037</v>
       </c>
     </row>
@@ -5862,72 +5808,66 @@
         <v>1.91540561479653e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2593351214975869</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.467127802654659</v>
+        <v>4.308615555884815e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02031964149826631</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.308615555884815e-06</v>
+        <v>0.1088797988565484</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02031964149826631</v>
+        <v>0.01226336508935969</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1088797988565484</v>
+        <v>1.760639175326055</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01226336508935969</v>
+        <v>1.411750983737203</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.750277493936077</v>
+        <v>11.45900669236063</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.411750983737203</v>
+        <v>1.053315603884727e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>11.45900669236063</v>
+        <v>226213390.9653936</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.053315603884727e-14</v>
+        <v>4.69811690346991e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>226213390.9653936</v>
+        <v>539.0079089866082</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.69811690346991e-07</v>
+        <v>0.0001167887711539156</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>539.0079089866082</v>
+        <v>8.24610594176256</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001167887711539156</v>
+        <v>2.096180372061437</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.24610594176256</v>
+        <v>0.007941433600052238</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.096180372061437</v>
+        <v>4.623717963762862</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007941433600052238</v>
+        <v>0.9586383118456203</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.623717963762862</v>
+        <v>0.9726578345171497</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9586383118456203</v>
+        <v>3</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9726578345171497</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.300906147715961</v>
       </c>
     </row>
@@ -5942,72 +5882,66 @@
         <v>1.903552555196508e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2144337049421819</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.461515268831732</v>
+        <v>4.304569684068738e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02232388853806845</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.304569684068738e-06</v>
+        <v>0.1060059755004223</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02232388853806845</v>
+        <v>0.01173065569561229</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1060059755004223</v>
+        <v>1.752966224651431</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01173065569561229</v>
+        <v>1.404564785607986</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.742159688378491</v>
+        <v>10.86072356376271</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.404564785607986</v>
+        <v>1.172559647846201e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>10.86072356376271</v>
+        <v>203131013.1858386</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.172559647846201e-14</v>
+        <v>5.231085826620535e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>203131013.1858386</v>
+        <v>483.8240068911158</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.231085826620535e-07</v>
+        <v>7.020017445917033e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>483.8240068911158</v>
+        <v>7.71873752475997</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.020017445917033e-05</v>
+        <v>1.546822950979189</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.71873752475997</v>
+        <v>0.004182449804211894</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.546822950979189</v>
+        <v>5.041597407291302</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004182449804211894</v>
+        <v>0.9576800789615086</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.041597407291302</v>
+        <v>1.227190853510673</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9576800789615086</v>
+        <v>3</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.227190853510673</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.586942763294199</v>
       </c>
     </row>
@@ -6022,72 +5956,66 @@
         <v>1.881592550606617e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1794089928829384</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.443308822723609</v>
+        <v>4.300084668717532e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02477520540941604</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.300084668717532e-06</v>
+        <v>0.103589288611271</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02477520540941604</v>
+        <v>0.01134320716627483</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.103589288611271</v>
+        <v>1.755186949766214</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01134320716627483</v>
+        <v>1.406451909644554</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.740467323387267</v>
+        <v>10.61429583161423</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.406451909644554</v>
+        <v>1.227637337426994e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.61429583161423</v>
+        <v>193972507.2040365</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.227637337426994e-14</v>
+        <v>5.478072756815259e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>193972507.2040365</v>
+        <v>461.9026430037673</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.478072756815259e-07</v>
+        <v>6.239157724613111e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>461.9026430037673</v>
+        <v>8.275735198061158</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.239157724613111e-05</v>
+        <v>1.266788665463762</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.275735198061158</v>
+        <v>0.00427306143164589</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.266788665463762</v>
+        <v>5.059763154339983</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00427306143164589</v>
+        <v>0.9581417188076061</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.059763154339983</v>
+        <v>1.268228687737894</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9581417188076061</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.268228687737894</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.706844224145332</v>
       </c>
     </row>
@@ -6102,72 +6030,66 @@
         <v>1.852448987551043e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1551779258237496</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.4219079038337</v>
+        <v>4.295386837543325e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02516818351045123</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.295386837543325e-06</v>
+        <v>0.10506346151158</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02516818351045123</v>
+        <v>0.01167171105925137</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.10506346151158</v>
+        <v>1.749135105620448</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01167171105925137</v>
+        <v>1.400540583341995</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.732892937979465</v>
+        <v>10.52251865817525</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.400540583341995</v>
+        <v>1.249145578398161e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>10.52251865817525</v>
+        <v>190486635.5430961</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.249145578398161e-14</v>
+        <v>5.577346848681441e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>190486635.5430961</v>
+        <v>453.2544507756522</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.577346848681441e-07</v>
+        <v>6.294264885667497e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>453.2544507756522</v>
+        <v>8.631677438457023</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>6.294264885667497e-05</v>
+        <v>1.283482505838097</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.631677438457023</v>
+        <v>0.004689595894307096</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.283482505838097</v>
+        <v>5.000963956794424</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.004689595894307096</v>
+        <v>0.9567827818513037</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.000963956794424</v>
+        <v>1.246530150309974</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9567827818513037</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.246530150309974</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.71520328365999</v>
       </c>
     </row>
@@ -6182,72 +6104,66 @@
         <v>1.821776769709914e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1357355994487001</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.397287375749982</v>
+        <v>4.290845444609301e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02414307796741882</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.290845444609301e-06</v>
+        <v>0.1070851202940957</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02414307796741882</v>
+        <v>0.01204981110429455</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1070851202940957</v>
+        <v>1.743662689050721</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01204981110429455</v>
+        <v>1.39597639070993</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.72711608176921</v>
+        <v>10.49614049070749</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.39597639070993</v>
+        <v>1.255431998691937e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>10.49614049070749</v>
+        <v>189418569.3417588</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.255431998691937e-14</v>
+        <v>5.607703431010262e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>189418569.3417588</v>
+        <v>450.4413983785902</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.607703431010262e-07</v>
+        <v>6.493088943705492e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>450.4413983785902</v>
+        <v>8.272351487799664</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>6.493088943705492e-05</v>
+        <v>1.282174012150755</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.272351487799664</v>
+        <v>0.004443337583788834</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.282174012150755</v>
+        <v>5.003810970510474</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004443337583788834</v>
+        <v>0.956433419003957</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.003810970510474</v>
+        <v>1.133165012120505</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.956433419003957</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.133165012120505</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.628710157282852</v>
       </c>
     </row>
@@ -6262,72 +6178,66 @@
         <v>1.792186084055896e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1174423696559785</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.367622702227054</v>
+        <v>4.286602948032507e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02281599346561331</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.286602948032507e-06</v>
+        <v>0.108968252151818</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02281599346561331</v>
+        <v>0.01239438151401268</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.108968252151818</v>
+        <v>1.741943551357286</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01239438151401268</v>
+        <v>1.394238521577225</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.724004371991736</v>
+        <v>10.49835781306856</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.394238521577225</v>
+        <v>1.254901743670067e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10.49835781306856</v>
+        <v>189431527.8147576</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.254901743670067e-14</v>
+        <v>5.606937766786535e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>189431527.8147576</v>
+        <v>450.3127532145602</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.606937766786535e-07</v>
+        <v>8.077864426505803e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>450.3127532145602</v>
+        <v>7.696533198100457</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.077864426505803e-05</v>
+        <v>1.681217537566097</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.696533198100457</v>
+        <v>0.004785054118547166</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.681217537566097</v>
+        <v>4.883732002500737</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.004785054118547166</v>
+        <v>0.9554881159045185</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.883732002500737</v>
+        <v>1.263257750294619</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9554881159045185</v>
+        <v>16</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.263257750294619</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.404912073647895</v>
       </c>
     </row>
@@ -6342,72 +6252,66 @@
         <v>1.763747869614616e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1005191668500665</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.333375362111437</v>
+        <v>4.282656852308403e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.02154654015261964</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.282656852308403e-06</v>
+        <v>0.1109909618187321</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02154654015261964</v>
+        <v>0.01278293411712896</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1109909618187321</v>
+        <v>1.737304685402033</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01278293411712896</v>
+        <v>1.390779769016418</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.719989029794658</v>
+        <v>10.50401604003113</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.390779769016418</v>
+        <v>1.25355014511454e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>10.50401604003113</v>
+        <v>189568346.8665888</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.25355014511454e-14</v>
+        <v>5.601933940150892e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>189568346.8665888</v>
+        <v>450.4777624339797</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.601933940150892e-07</v>
+        <v>8.592275703929916e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>450.4777624339797</v>
+        <v>7.992924548164103</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>8.592275703929916e-05</v>
+        <v>1.712236059379236</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.992924548164103</v>
+        <v>0.00548933367471719</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.712236059379236</v>
+        <v>4.835704260113368</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00548933367471719</v>
+        <v>0.9550209560795763</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.835704260113368</v>
+        <v>1.091745479691411</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9550209560795763</v>
+        <v>16</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.091745479691411</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.378356693210026</v>
       </c>
     </row>
@@ -6422,72 +6326,66 @@
         <v>1.736599213749797e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.08583374285548302</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.295369317029329</v>
+        <v>4.279043866126266e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.01952959413788773</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.279043866126266e-06</v>
+        <v>0.1130765165041147</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01952959413788773</v>
+        <v>0.01316673564639853</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1130765165041147</v>
+        <v>1.733123337507253</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01316673564639853</v>
+        <v>1.388237782196867</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.712317612399955</v>
+        <v>10.49673872871161</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.388237782196867</v>
+        <v>1.255288901726204e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.49673872871161</v>
+        <v>189153638.0924136</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.255288901726204e-14</v>
+        <v>5.612923068930753e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>189153638.0924136</v>
+        <v>449.1310564191906</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.612923068930753e-07</v>
+        <v>6.787063389737315e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>449.1310564191906</v>
+        <v>8.511702316940886</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.787063389737315e-05</v>
+        <v>1.262514577991608</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.511702316940886</v>
+        <v>0.004917164735946731</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.262514577991608</v>
+        <v>4.96596213348345</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.004917164735946731</v>
+        <v>0.9554411670094717</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.96596213348345</v>
+        <v>1.133940159247806</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9554411670094717</v>
+        <v>16</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.133940159247806</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.587526475926515</v>
       </c>
     </row>
@@ -6502,72 +6400,66 @@
         <v>1.712441546860664e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.07310905206151642</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.254820163718704</v>
+        <v>4.275936794534131e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.01632628809412964</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.275936794534131e-06</v>
+        <v>0.1151624391946841</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01632628809412964</v>
+        <v>0.01352719281932083</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1151624391946841</v>
+        <v>1.728117128100639</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01352719281932083</v>
+        <v>1.385329414461936</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.706267487475143</v>
+        <v>10.47281880430459</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.385329414461936</v>
+        <v>1.261029611343281e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10.47281880430459</v>
+        <v>188200906.2152654</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.261029611343281e-14</v>
+        <v>5.640460299713343e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>188200906.2152654</v>
+        <v>446.6514058878646</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.640460299713343e-07</v>
+        <v>6.522222763527392e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>446.6514058878646</v>
+        <v>8.961968264934953</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>6.522222763527392e-05</v>
+        <v>1.238878843892602</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.961968264934953</v>
+        <v>0.005238445516054799</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.238878843892602</v>
+        <v>4.934503150219105</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005238445516054799</v>
+        <v>0.9536021682944225</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.934503150219105</v>
+        <v>1.287889284316523</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9536021682944225</v>
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.287889284316523</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.665988123107026</v>
       </c>
     </row>
@@ -6582,72 +6474,66 @@
         <v>1.692590175466416e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.06336305682068452</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.215882028533253</v>
+        <v>4.273484788103242e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.01241270421378761</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.273484788103242e-06</v>
+        <v>0.1175820931470307</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01241270421378761</v>
+        <v>0.01397752194522726</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1175820931470307</v>
+        <v>1.724441855128217</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01397752194522726</v>
+        <v>1.378897455962624</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.700421419864102</v>
+        <v>10.50545072929656</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.378897455962624</v>
+        <v>1.253207783386488e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>10.50545072929656</v>
+        <v>189294861.1398108</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.253207783386488e-14</v>
+        <v>5.607305803089916e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>189294861.1398108</v>
+        <v>449.0562360822025</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.607305803089916e-07</v>
+        <v>6.648299766861059e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>449.0562360822025</v>
+        <v>8.646775113335003</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>6.648299766861059e-05</v>
+        <v>1.247884434504258</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.646775113335003</v>
+        <v>0.004970715662181237</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.247884434504258</v>
+        <v>4.953075144129053</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.004970715662181237</v>
+        <v>0.9543050806792811</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.953075144129053</v>
+        <v>1.13211513286491</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9543050806792811</v>
+        <v>16</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.13211513286491</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.599859403658815</v>
       </c>
     </row>
@@ -6662,72 +6548,66 @@
         <v>1.677619268959638e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.05774700197338774</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.184073578021265</v>
+        <v>4.271736311657288e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.008299793621845472</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.271736311657288e-06</v>
+        <v>0.1204024605357207</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.008299793621845472</v>
+        <v>0.01456314510303911</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1204024605357207</v>
+        <v>1.727768284675575</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01456314510303911</v>
+        <v>1.388487371546636</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.702378238084593</v>
+        <v>10.55634163015091</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.388487371546636</v>
+        <v>1.241153769823335e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>10.55634163015091</v>
+        <v>191117662.4448643</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.241153769823335e-14</v>
+        <v>5.554152233879969e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>191117662.4448643</v>
+        <v>453.3433406545535</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.554152233879969e-07</v>
+        <v>8.034116719968806e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>453.3433406545535</v>
+        <v>8.396466377258278</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>8.034116719968806e-05</v>
+        <v>1.431577788111014</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.396466377258278</v>
+        <v>0.005664104318480521</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.431577788111014</v>
+        <v>4.805749250342171</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005664104318480521</v>
+        <v>0.9544738968258559</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.805749250342171</v>
+        <v>1.272897436974649</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9544738968258559</v>
+        <v>16</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.272897436974649</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.370882141973591</v>
       </c>
     </row>
@@ -6742,72 +6622,66 @@
         <v>1.667973147350973e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.05620440480406529</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.163929279015612</v>
+        <v>4.270689699056175e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.004314263817965648</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.270689699056175e-06</v>
+        <v>0.123446323452245</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.004314263817965648</v>
+        <v>0.01525563378774555</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.123446323452245</v>
+        <v>1.688174968032494</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01525563378774555</v>
+        <v>1.387608539189456</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.654046328327816</v>
+        <v>10.71903211032815</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.387608539189456</v>
+        <v>1.203763914399718e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>10.71903211032815</v>
+        <v>196853946.2080175</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.203763914399718e-14</v>
+        <v>5.389319203646125e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>196853946.2080175</v>
+        <v>466.4762860424777</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.389319203646125e-07</v>
+        <v>0.0001402065750347156</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>466.4762860424777</v>
+        <v>9.128128564417695</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001402065750347156</v>
+        <v>1.673942790593761</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.128128564417695</v>
+        <v>0.01168239474846257</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.673942790593761</v>
+        <v>4.118838525434042</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01168239474846257</v>
+        <v>0.9572321670097095</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.118838525434042</v>
+        <v>1.289269322295053</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9572321670097095</v>
+        <v>17</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.289269322295053</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.9004142842143729</v>
       </c>
     </row>
@@ -6822,72 +6696,66 @@
         <v>1.663174226860939e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.05659032172852308</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.154829505860984</v>
+        <v>4.270205079978307e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.0018364757817998</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.270205079978307e-06</v>
+        <v>0.124910408984107</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0018364757817998</v>
+        <v>0.01560558988120953</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.124910408984107</v>
+        <v>1.672991332822954</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01560558988120953</v>
+        <v>1.396361865943331</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.636453221444204</v>
+        <v>10.76783034456145</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.396361865943331</v>
+        <v>1.192878072496345e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>10.76783034456145</v>
+        <v>198562025.345959</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.192878072496345e-14</v>
+        <v>5.342302038160486e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>198562025.345959</v>
+        <v>470.3145812522028</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.342302038160486e-07</v>
+        <v>0.0002534918508143449</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>470.3145812522028</v>
+        <v>10.68124270104525</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002534918508143449</v>
+        <v>1.503632776236891</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.68124270104525</v>
+        <v>0.02892061798739412</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.503632776236891</v>
+        <v>2.718350429239691</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02892061798739412</v>
+        <v>0.9571209080491203</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.718350429239691</v>
+        <v>1.223452042194453</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9571209080491203</v>
+        <v>17</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.223452042194453</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2811087057208504</v>
       </c>
     </row>
@@ -6902,72 +6770,66 @@
         <v>1.660676672306304e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.05716650250977907</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.150513400618237</v>
+        <v>4.269963372196777e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.001365415224002001</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.269963372196777e-06</v>
+        <v>0.1252142612937285</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.001365415224002001</v>
+        <v>0.01568039039389352</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1252142612937285</v>
+        <v>1.676488532335239</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01568039039389352</v>
+        <v>1.422139475001262</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.669378523295413</v>
+        <v>12.57782650146375</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.422139475001262</v>
+        <v>8.742613203701055e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>12.57782650146375</v>
+        <v>270881600.0831596</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.742613203701055e-15</v>
+        <v>3.916632101517848e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>270881600.0831596</v>
+        <v>641.5053412771375</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.916632101517848e-07</v>
+        <v>0.0002316075316710519</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>641.5053412771375</v>
+        <v>12.04559761226809</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002316075316710519</v>
+        <v>1.230893139372604</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.04559761226809</v>
+        <v>0.03360542411589487</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.230893139372604</v>
+        <v>2.52486844497541</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03360542411589487</v>
+        <v>0.9575130444856675</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.52486844497541</v>
+        <v>1.076754158715936</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9575130444856675</v>
+        <v>17</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.076754158715936</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1684387632192041</v>
       </c>
     </row>
@@ -6982,72 +6844,66 @@
         <v>1.657498326421837e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.0582361687930336</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.14546214058437</v>
+        <v>4.269664513488507e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.002445420178741207</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.269664513488507e-06</v>
+        <v>0.1251898564736817</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.002445420178741207</v>
+        <v>0.01567798014786188</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1251898564736817</v>
+        <v>1.772185917048759</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01567798014786188</v>
+        <v>1.55607396773993</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.712506358019668</v>
+        <v>3.524070198094629</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.55607396773993</v>
+        <v>5.619399655806655e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.524070198094629</v>
+        <v>43762643.43920735</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.619399655806655e-15</v>
+        <v>2.66480245087337e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>43762643.43920735</v>
+        <v>10.76209979905917</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.66480245087337e-06</v>
+        <v>0.0001709666558086805</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>10.76209979905917</v>
+        <v>12.08824941810211</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001709666558086805</v>
+        <v>1.088974448347234</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.08824941810211</v>
+        <v>0.02498263490725131</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.088974448347234</v>
+        <v>2.747947480156372</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02498263490725131</v>
+        <v>0.9558695910168946</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.747947480156372</v>
+        <v>1.708356458781207</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9558695910168946</v>
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.708356458781207</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1888736255137429</v>
       </c>
     </row>
@@ -7062,72 +6918,66 @@
         <v>1.651122079859069e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.06138953762191544</v>
+        <v>5.539842635523369e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.1368195027626</v>
+        <v>4.269088944739632e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.539842635523369e-07</v>
+        <v>-0.004678879044151089</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.269088944739632e-06</v>
+        <v>0.1246876902354025</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.004678879044151089</v>
+        <v>0.0155673753729772</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1246876902354025</v>
+        <v>1.772713410524558</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0155673753729772</v>
+        <v>1.637221242460986</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.716218679455811</v>
+        <v>3.701774340801343</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.637221242460986</v>
+        <v>4.579621154419199e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.701774340801343</v>
+        <v>53694452.57938498</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.579621154419199e-15</v>
+        <v>2.171142249111877e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>53694452.57938498</v>
+        <v>13.20347936161216</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.171142249111877e-06</v>
+        <v>0.0001468003433010014</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>13.20347936161216</v>
+        <v>10.79813477375221</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001468003433010014</v>
+        <v>1.126522222963087</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.79813477375221</v>
+        <v>0.01711687813092152</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.126522222963087</v>
+        <v>2.798913138060902</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01711687813092152</v>
+        <v>0.9551938989203528</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.798913138060902</v>
+        <v>1.723920096882334</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9551938989203528</v>
+        <v>25</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.723920096882334</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1957035580599575</v>
       </c>
     </row>
@@ -7504,7 +7354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.356949798689633</v>
+        <v>1.33931572968886</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.009778829061685</v>
@@ -7593,7 +7443,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.341745703297889</v>
+        <v>1.325023651535206</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.005232575232042</v>
@@ -7682,7 +7532,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.308311884206608</v>
+        <v>1.291819596290066</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.058023679299957</v>
@@ -7771,7 +7621,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.275833874513896</v>
+        <v>1.248323037566311</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.079673055788379</v>
@@ -7860,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.251553992964592</v>
+        <v>1.232758071785324</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.989022050346323</v>
@@ -7949,7 +7799,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.264000277329857</v>
+        <v>1.242037993669479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.870749068593902</v>
@@ -8038,7 +7888,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.240682612745311</v>
+        <v>1.221709953688265</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.048047791393667</v>
@@ -8127,7 +7977,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.233244309155552</v>
+        <v>1.212499908771548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.08271082165387</v>
@@ -8216,7 +8066,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.226402959426472</v>
+        <v>1.2009403402542</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.058551230582956</v>
@@ -8305,7 +8155,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.216688966354471</v>
+        <v>1.196526459302703</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.121651611141943</v>
@@ -8394,7 +8244,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.203796833668122</v>
+        <v>1.183466207702665</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.096179051311803</v>
@@ -8483,7 +8333,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.199268365515612</v>
+        <v>1.177729822074729</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.118559040713819</v>
@@ -8572,7 +8422,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.182563326179771</v>
+        <v>1.161353060823104</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.142448398827991</v>
@@ -8661,7 +8511,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.17978559075596</v>
+        <v>1.159794113845066</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.151412243003945</v>
@@ -8750,7 +8600,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.179892863692394</v>
+        <v>1.162614487494323</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.085807478784074</v>
@@ -8839,7 +8689,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.189874531318601</v>
+        <v>1.172914032665555</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.076106434904123</v>
@@ -8928,7 +8778,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.202302920787115</v>
+        <v>1.18853575054005</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.794152427421839</v>
@@ -9017,7 +8867,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.220431222652613</v>
+        <v>1.206329394194751</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.768989294168652</v>
@@ -9106,7 +8956,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.228266789158157</v>
+        <v>1.219073194345124</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.939016211608489</v>
@@ -9195,7 +9045,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.24154632877472</v>
+        <v>1.228519810867437</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.943869442264053</v>
@@ -9284,7 +9134,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.238718194640971</v>
+        <v>1.223482894603313</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.956556290162987</v>
@@ -9373,7 +9223,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.247841714829143</v>
+        <v>1.235043920711294</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.986448065689447</v>
@@ -9462,7 +9312,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.262662096277143</v>
+        <v>1.249506974293788</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.922116166406339</v>
@@ -9551,7 +9401,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.285691411068818</v>
+        <v>1.279386680358698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.875113758027559</v>
@@ -9640,7 +9490,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.320848866221424</v>
+        <v>1.307691358372495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.818430130083574</v>
@@ -9729,7 +9579,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.353658783299644</v>
+        <v>1.341994490968935</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.860391318592135</v>
@@ -9818,7 +9668,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.399280326055317</v>
+        <v>1.378096276467486</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.708215252209332</v>
@@ -9907,7 +9757,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.436702321360124</v>
+        <v>1.416546610213614</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.862640071696893</v>
@@ -9996,7 +9846,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.438013660331241</v>
+        <v>1.41732841783264</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.845200393312177</v>
@@ -10085,7 +9935,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.415753441184389</v>
+        <v>1.390479610474006</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.876745185679139</v>
@@ -10174,7 +10024,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.39959582396488</v>
+        <v>1.380968412597599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.859626127308142</v>
@@ -10263,7 +10113,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.352155348869202</v>
+        <v>1.336972172228044</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.895467927874063</v>
@@ -10352,7 +10202,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.344834161188047</v>
+        <v>1.329103734256567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.924285436562027</v>
@@ -10441,7 +10291,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.3394326357645</v>
+        <v>1.325526164198458</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.895762351300824</v>
@@ -10530,7 +10380,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.334714257726753</v>
+        <v>1.321232808087649</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.877024011402627</v>
@@ -10619,7 +10469,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.380078599357059</v>
+        <v>1.366010729537248</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.949390625901663</v>
@@ -10708,7 +10558,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.39600693667082</v>
+        <v>1.382545684156763</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.976429096277008</v>
@@ -10797,7 +10647,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.400369717053438</v>
+        <v>1.386169453682369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.981652958960837</v>
@@ -10886,7 +10736,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.399480484016089</v>
+        <v>1.3812231505964</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.893617381501697</v>
@@ -10975,7 +10825,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395880081583155</v>
+        <v>1.379873699366385</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.938960860108202</v>
@@ -11064,7 +10914,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.356559688492214</v>
+        <v>1.350229257861863</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.858605155034423</v>
@@ -11153,7 +11003,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.370575605106733</v>
+        <v>1.363765259940172</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.98484939463788</v>
@@ -11242,7 +11092,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.381910765366714</v>
+        <v>1.37236741520696</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.996863525252685</v>
@@ -11331,7 +11181,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.389098891156663</v>
+        <v>1.380804707553864</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.997738725571633</v>
@@ -11420,7 +11270,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.432686478310992</v>
+        <v>1.420871148147182</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.006222986007811</v>
@@ -11509,7 +11359,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.416548794242803</v>
+        <v>1.376484611707758</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.82578671225335</v>
@@ -11598,7 +11448,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.40166148529229</v>
+        <v>1.393784358432106</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.911180220215183</v>
@@ -11687,7 +11537,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.407790068920598</v>
+        <v>1.407768039923275</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.923636468917965</v>
@@ -11776,7 +11626,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.425730120806099</v>
+        <v>1.408589583515452</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.964057726994592</v>
@@ -11865,7 +11715,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388690076839854</v>
+        <v>1.377494727187581</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.986371553496334</v>
@@ -11954,7 +11804,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.375490208158707</v>
+        <v>1.366997499673057</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.002119898174951</v>
@@ -12043,7 +11893,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.375656464402061</v>
+        <v>1.36540281561915</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.018713940504957</v>
@@ -12132,7 +11982,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.380700219920468</v>
+        <v>1.372830776798924</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.972628825241133</v>
@@ -12221,7 +12071,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.388365900189076</v>
+        <v>1.378843724834788</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.001795793297547</v>
@@ -12310,7 +12160,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.395086591654056</v>
+        <v>1.38451028222509</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.982938136243849</v>
@@ -12399,7 +12249,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.418347908341735</v>
+        <v>1.40125562177954</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.979853572101165</v>
@@ -12488,7 +12338,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.356998488333738</v>
+        <v>1.339228601586352</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.037032005510405</v>
@@ -12577,7 +12427,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.354788610255205</v>
+        <v>1.336732997320832</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.021440905033599</v>
@@ -12666,7 +12516,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.335684182188719</v>
+        <v>1.319533773229145</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.047279975490678</v>
@@ -12755,7 +12605,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.347901056805886</v>
+        <v>1.329312743874976</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.91702983192394</v>
@@ -12844,7 +12694,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.359988959334503</v>
+        <v>1.341117991420751</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.824609038040751</v>
@@ -12933,7 +12783,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.342623694374696</v>
+        <v>1.325305322533956</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.028668094247548</v>
@@ -13022,7 +12872,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.333675920134872</v>
+        <v>1.29660840805543</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.059740144988342</v>
@@ -13111,7 +12961,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.320065193797797</v>
+        <v>1.29344455435698</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.961995507894905</v>
@@ -13200,7 +13050,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.345473670592168</v>
+        <v>1.317975552692751</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.065825660758385</v>
@@ -13289,7 +13139,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.312483499194816</v>
+        <v>1.280066253516093</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.14240018405585</v>
@@ -13378,7 +13228,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.301317503097454</v>
+        <v>1.275654249785531</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.167719103413597</v>
@@ -13467,7 +13317,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.282895243004765</v>
+        <v>1.257989152873385</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.194095054906255</v>
@@ -13753,7 +13603,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352506000809898</v>
+        <v>1.331657228000329</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.937027251520867</v>
@@ -13842,7 +13692,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.334958771550131</v>
+        <v>1.314218591153681</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.966789724022702</v>
@@ -13931,7 +13781,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.297258381325505</v>
+        <v>1.279967028573136</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.996269516154714</v>
@@ -14020,7 +13870,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.261931993240448</v>
+        <v>1.234368523280717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.034489688319254</v>
@@ -14109,7 +13959,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.24144587314041</v>
+        <v>1.222890487806089</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.940047666843732</v>
@@ -14198,7 +14048,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.251656413782337</v>
+        <v>1.231215216494991</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.831805278006429</v>
@@ -14287,7 +14137,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.230933523040957</v>
+        <v>1.213171946070076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.985920470856946</v>
@@ -14376,7 +14226,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.228390488053614</v>
+        <v>1.207962243012674</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.032882704942724</v>
@@ -14465,7 +14315,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.218647265968896</v>
+        <v>1.193419891394407</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.998339088953125</v>
@@ -14554,7 +14404,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.205810612791452</v>
+        <v>1.185480550141607</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.051062014499236</v>
@@ -14643,7 +14493,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.193026983890779</v>
+        <v>1.172088162950162</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.058560278360839</v>
@@ -14732,7 +14582,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.185519490079638</v>
+        <v>1.163365070068734</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.084032552879172</v>
@@ -14821,7 +14671,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.166458201163385</v>
+        <v>1.143887046577697</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.104824115390976</v>
@@ -14910,7 +14760,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.159938854477378</v>
+        <v>1.136848439015308</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.114476075741283</v>
@@ -14999,7 +14849,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.158057581576717</v>
+        <v>1.137176536484928</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.045887089584837</v>
@@ -15088,7 +14938,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.164999715383734</v>
+        <v>1.145307389556834</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.013617523520117</v>
@@ -15177,7 +15027,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.175076673226693</v>
+        <v>1.15801347770298</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.746536076133848</v>
@@ -15266,7 +15116,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.193516681192039</v>
+        <v>1.175834093606788</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.723557959597896</v>
@@ -15355,7 +15205,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.193990213773327</v>
+        <v>1.181924740930841</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.88023418136856</v>
@@ -15444,7 +15294,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.203847352695592</v>
+        <v>1.186629840605137</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.881476162878051</v>
@@ -15533,7 +15383,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.20324986001897</v>
+        <v>1.182550158764114</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.90379663569201</v>
@@ -15622,7 +15472,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.206140369639275</v>
+        <v>1.189251047086749</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.907352675241071</v>
@@ -15711,7 +15561,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.218038903198478</v>
+        <v>1.201806720467866</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.851984255866031</v>
@@ -15800,7 +15650,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.240614064721741</v>
+        <v>1.231955394402218</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.796962234492499</v>
@@ -15889,7 +15739,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.282932864247774</v>
+        <v>1.26968818703126</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.756501445043155</v>
@@ -15978,7 +15828,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.318680143521466</v>
+        <v>1.309655652984944</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.804033813806763</v>
@@ -16067,7 +15917,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.372762144618312</v>
+        <v>1.350663075445848</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.655222288760026</v>
@@ -16156,7 +16006,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.418799980606321</v>
+        <v>1.397139164920262</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.768050776972343</v>
@@ -16245,7 +16095,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.424299905805537</v>
+        <v>1.400150552030933</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.774618343654462</v>
@@ -16334,7 +16184,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.403357479681583</v>
+        <v>1.375298388458856</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.80868806300106</v>
@@ -16423,7 +16273,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.376990551881874</v>
+        <v>1.353897566041221</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.819513362254609</v>
@@ -16512,7 +16362,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.325833895226248</v>
+        <v>1.305899528675534</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.852277549839977</v>
@@ -16601,7 +16451,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.319553010046737</v>
+        <v>1.301567383653152</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.842442012977737</v>
@@ -16690,7 +16540,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.321025636028467</v>
+        <v>1.303198578529456</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.83158671187585</v>
@@ -16779,7 +16629,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.311393223300918</v>
+        <v>1.297369306519037</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.832981497538979</v>
@@ -16868,7 +16718,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.360491483277765</v>
+        <v>1.3454420076411</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.864324930152005</v>
@@ -16957,7 +16807,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.379719307810964</v>
+        <v>1.364246542799388</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.893799009403623</v>
@@ -17046,7 +16896,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.389019671779173</v>
+        <v>1.375951711295348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.921636735902248</v>
@@ -17135,7 +16985,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385223958955229</v>
+        <v>1.367894527840557</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.823754569291343</v>
@@ -17224,7 +17074,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.375892612048518</v>
+        <v>1.361141520582662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.877979873559438</v>
@@ -17313,7 +17163,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.327207466313248</v>
+        <v>1.319448019446184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.770626336465538</v>
@@ -17402,7 +17252,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.337274153821147</v>
+        <v>1.326250234947913</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.870111138595813</v>
@@ -17491,7 +17341,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.345115655877539</v>
+        <v>1.335223263001422</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.90186386508079</v>
@@ -17580,7 +17430,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.353707085103997</v>
+        <v>1.347307698825484</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.910011338123314</v>
@@ -17669,7 +17519,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.403472363567482</v>
+        <v>1.395445329132571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.923274287700895</v>
@@ -17758,7 +17608,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.390622799080518</v>
+        <v>1.353000238034128</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.755829254349639</v>
@@ -17847,7 +17697,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.373197502013738</v>
+        <v>1.367344504109705</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.828339212443879</v>
@@ -17936,7 +17786,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370226027637721</v>
+        <v>1.363688917734353</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.863397035377537</v>
@@ -18025,7 +17875,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.388440675962035</v>
+        <v>1.366372686562158</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.876228583965384</v>
@@ -18114,7 +17964,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.343689981798868</v>
+        <v>1.328663014564821</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.907613947955789</v>
@@ -18203,7 +18053,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.33019704189785</v>
+        <v>1.318249599418096</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.934756804421211</v>
@@ -18292,7 +18142,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.327659914926999</v>
+        <v>1.311943028593213</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.94510746020728</v>
@@ -18381,7 +18231,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.331056644142128</v>
+        <v>1.313553570472711</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.899386682393519</v>
@@ -18470,7 +18320,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.338061426512456</v>
+        <v>1.319406857861963</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.941466466832807</v>
@@ -18559,7 +18409,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.350605908052684</v>
+        <v>1.328301787713828</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.9163317272514</v>
@@ -18648,7 +18498,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.377324941857571</v>
+        <v>1.348679620078252</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.914861868799481</v>
@@ -18737,7 +18587,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.320630479210689</v>
+        <v>1.292561735737687</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.958572447415841</v>
@@ -18826,7 +18676,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.317692493973952</v>
+        <v>1.290165843856679</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.972311310474983</v>
@@ -18915,7 +18765,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.292307312143295</v>
+        <v>1.267973084625585</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.970635194379669</v>
@@ -19004,7 +18854,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.300245335870961</v>
+        <v>1.274273098451699</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.819317868286571</v>
@@ -19093,7 +18943,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.307493416420475</v>
+        <v>1.282166888610639</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.756490623538107</v>
@@ -19182,7 +19032,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.287338694384033</v>
+        <v>1.262861514163244</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.931874121945472</v>
@@ -19271,7 +19121,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.289776610785713</v>
+        <v>1.245916178701808</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.003424580678017</v>
@@ -19360,7 +19210,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.262976164960474</v>
+        <v>1.229561687723778</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.897348192238131</v>
@@ -19449,7 +19299,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.289782279854213</v>
+        <v>1.256657904844875</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.000361052357745</v>
@@ -19538,7 +19388,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.256396023872675</v>
+        <v>1.219492242822971</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.034298955505788</v>
@@ -19627,7 +19477,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.239446647777511</v>
+        <v>1.209332472754669</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.052955902984538</v>
@@ -19716,7 +19566,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.218434994876202</v>
+        <v>1.189279600489499</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.085273202831367</v>
@@ -20002,7 +19852,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.371445595951943</v>
+        <v>1.345566813784856</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.9577286144164</v>
@@ -20091,7 +19941,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.352117708481296</v>
+        <v>1.329141804450485</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.973596342920808</v>
@@ -20180,7 +20030,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.311241279189206</v>
+        <v>1.292071503217855</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.016457390097999</v>
@@ -20269,7 +20119,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.272872976040753</v>
+        <v>1.24231602713851</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.055614546197283</v>
@@ -20358,7 +20208,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.247547753363126</v>
+        <v>1.226972795251047</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.957064556986962</v>
@@ -20447,7 +20297,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.25299982273228</v>
+        <v>1.231214012810087</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.848098185032871</v>
@@ -20536,7 +20386,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.241761073160113</v>
+        <v>1.217927142837131</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.966751505814114</v>
@@ -20625,7 +20475,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.23882650695781</v>
+        <v>1.21227824611153</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.963349742206981</v>
@@ -20714,7 +20564,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.230211800568316</v>
+        <v>1.19955657859229</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.022396892837294</v>
@@ -20803,7 +20653,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.216655795132352</v>
+        <v>1.192307940784061</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.04807692797605</v>
@@ -20892,7 +20742,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.204233939810892</v>
+        <v>1.180126409903137</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.07954871164296</v>
@@ -20981,7 +20831,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.198487908978785</v>
+        <v>1.173959884535738</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.100144663631831</v>
@@ -21070,7 +20920,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.181102432412121</v>
+        <v>1.156301009605516</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.118796361944911</v>
@@ -21159,7 +21009,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.173607188806729</v>
+        <v>1.149504327165251</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.10303972062875</v>
@@ -21248,7 +21098,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.173210738817102</v>
+        <v>1.151375729919007</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.074181076969773</v>
@@ -21337,7 +21187,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.182724370088497</v>
+        <v>1.161196171224166</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.052515786828682</v>
@@ -21426,7 +21276,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.195340890301049</v>
+        <v>1.175087277387033</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.774954160534836</v>
@@ -21515,7 +21365,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.213794261104958</v>
+        <v>1.192429696617885</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.747114432645489</v>
@@ -21604,7 +21454,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.218547367574836</v>
+        <v>1.20229151599474</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.908626469648084</v>
@@ -21693,7 +21543,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.232495818932525</v>
+        <v>1.210868391858082</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.854926465612115</v>
@@ -21782,7 +21632,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.231574202510074</v>
+        <v>1.206625252611489</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.926981742820511</v>
@@ -21871,7 +21721,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.230694267668497</v>
+        <v>1.214057246362211</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.932812042551234</v>
@@ -21960,7 +21810,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.240704254058827</v>
+        <v>1.225076977256186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.894789339745042</v>
@@ -22049,7 +21899,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.268930363141129</v>
+        <v>1.259261513077305</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.836556212431397</v>
@@ -22138,7 +21988,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.307447695016503</v>
+        <v>1.291193790678034</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.798842509583208</v>
@@ -22227,7 +22077,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.341211701233042</v>
+        <v>1.328029023770597</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.828069611331249</v>
@@ -22316,7 +22166,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.393326677218642</v>
+        <v>1.368273993739792</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.667714465650847</v>
@@ -22405,7 +22255,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432973762288182</v>
+        <v>1.407769920972078</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.799938700843078</v>
@@ -22494,7 +22344,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.445044269460356</v>
+        <v>1.418036507923936</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.818160582003085</v>
@@ -22583,7 +22433,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.421749312921967</v>
+        <v>1.393781920501887</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.85153731253226</v>
@@ -22672,7 +22522,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.396228196819086</v>
+        <v>1.375532086116961</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.858697496080373</v>
@@ -22761,7 +22611,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.34302313937513</v>
+        <v>1.326375691280708</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.8939857029798</v>
@@ -22850,7 +22700,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.335124318361744</v>
+        <v>1.32055448066683</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.885900955898376</v>
@@ -22939,7 +22789,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.334839869221965</v>
+        <v>1.319526671478536</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.879626290325883</v>
@@ -23028,7 +22878,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.332957029616866</v>
+        <v>1.318950495316138</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.864061052406737</v>
@@ -23117,7 +22967,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.384597294341166</v>
+        <v>1.37122349287214</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.897046931973971</v>
@@ -23206,7 +23056,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.396316554854845</v>
+        <v>1.382803719152809</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.961132448152974</v>
@@ -23295,7 +23145,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.403484057132432</v>
+        <v>1.392174845603231</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.969127849609656</v>
@@ -23384,7 +23234,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.399278210992692</v>
+        <v>1.386113091443455</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.878883550234648</v>
@@ -23473,7 +23323,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.39305577240935</v>
+        <v>1.382210200725225</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.917848335781444</v>
@@ -23562,7 +23412,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.353667628445994</v>
+        <v>1.350935655345282</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.841106699563241</v>
@@ -23651,7 +23501,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.36137189050891</v>
+        <v>1.356244201295768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.935959759742555</v>
@@ -23740,7 +23590,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.373171619826166</v>
+        <v>1.366478406688705</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.968665281207562</v>
@@ -23829,7 +23679,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.376233707800874</v>
+        <v>1.371334438091048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.977664819754639</v>
@@ -23918,7 +23768,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.418892899300627</v>
+        <v>1.410360658555002</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.964286814683104</v>
@@ -24007,7 +23857,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.407595894948116</v>
+        <v>1.366008923474903</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.793615674839798</v>
@@ -24096,7 +23946,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.391476373380937</v>
+        <v>1.382343767153415</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.85218599601869</v>
@@ -24185,7 +24035,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.389649830500029</v>
+        <v>1.384246830173497</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.898683704349857</v>
@@ -24274,7 +24124,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.410991849230926</v>
+        <v>1.390495429716146</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.917606343903319</v>
@@ -24363,7 +24213,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.365135700930802</v>
+        <v>1.352247076131775</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.936759351000553</v>
@@ -24452,7 +24302,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.348611522316949</v>
+        <v>1.336272118694313</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.953931530052293</v>
@@ -24541,7 +24391,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.347887692522842</v>
+        <v>1.333046118450808</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.945108319630512</v>
@@ -24630,7 +24480,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.355640923503408</v>
+        <v>1.342838197982042</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.926515053554233</v>
@@ -24719,7 +24569,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.356631266539816</v>
+        <v>1.341914150646651</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.953540874851349</v>
@@ -24808,7 +24658,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.365926172738466</v>
+        <v>1.349324919665378</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.958288431723562</v>
@@ -24897,7 +24747,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.387507453235188</v>
+        <v>1.363861696082637</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.937432822072034</v>
@@ -24986,7 +24836,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.33051064674711</v>
+        <v>1.306724152425901</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.979301187992634</v>
@@ -25075,7 +24925,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.32848238813775</v>
+        <v>1.304088013794384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.977655030703081</v>
@@ -25164,7 +25014,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.306117900971544</v>
+        <v>1.284222679714261</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.989150271423459</v>
@@ -25253,7 +25103,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.314417634402283</v>
+        <v>1.288740610474195</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.836416785872714</v>
@@ -25342,7 +25192,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.3238131221745</v>
+        <v>1.29897057109006</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.776660469661786</v>
@@ -25431,7 +25281,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.304469291895809</v>
+        <v>1.28083202966849</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.944030265070725</v>
@@ -25520,7 +25370,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.306516485979661</v>
+        <v>1.262659552233422</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.037190319574237</v>
@@ -25609,7 +25459,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.28317850067638</v>
+        <v>1.249055786141766</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.920627142908113</v>
@@ -25698,7 +25548,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.308519916521211</v>
+        <v>1.274042119916643</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.005664339465746</v>
@@ -25787,7 +25637,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.276065626527181</v>
+        <v>1.237143581899228</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.055244161675265</v>
@@ -25876,7 +25726,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.262747589174391</v>
+        <v>1.229821905606443</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.07238517380169</v>
@@ -25965,7 +25815,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.239700370929952</v>
+        <v>1.207401966873044</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.125384069322663</v>
@@ -26251,7 +26101,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365234696904585</v>
+        <v>1.334132325541854</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.957494531780304</v>
@@ -26340,7 +26190,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.348810771888934</v>
+        <v>1.320478654461559</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.99611382668451</v>
@@ -26429,7 +26279,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.309747111663299</v>
+        <v>1.284471633134741</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.035181319243924</v>
@@ -26518,7 +26368,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.280915075174783</v>
+        <v>1.245721494754668</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.070934178051374</v>
@@ -26607,7 +26457,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.256094062354902</v>
+        <v>1.231940259104337</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.972506846420587</v>
@@ -26696,7 +26546,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.263949890074501</v>
+        <v>1.236167380392778</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.849581272745289</v>
@@ -26785,7 +26635,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.244865604353718</v>
+        <v>1.21975351675465</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.014461601201352</v>
@@ -26874,7 +26724,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.236792288840772</v>
+        <v>1.209741497691248</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.069657138524919</v>
@@ -26963,7 +26813,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.22773615408625</v>
+        <v>1.19699173466028</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041264129751001</v>
@@ -27052,7 +26902,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.215021739858891</v>
+        <v>1.190136022224255</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.09613918803257</v>
@@ -27141,7 +26991,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.202356869687897</v>
+        <v>1.17845041353065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.10332649240534</v>
@@ -27230,7 +27080,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.195462569372931</v>
+        <v>1.171732693883359</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.126153754365204</v>
@@ -27319,7 +27169,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.178402960923119</v>
+        <v>1.155775525791992</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.132668953468909</v>
@@ -27408,7 +27258,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.175271970686502</v>
+        <v>1.154683542550022</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.114385250264712</v>
@@ -27497,7 +27347,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.173051886709133</v>
+        <v>1.154856741846484</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.085183816522822</v>
@@ -27586,7 +27436,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.181815792414352</v>
+        <v>1.164153441513219</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.06087928922653</v>
@@ -27675,7 +27525,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.193595168202312</v>
+        <v>1.17773207014541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.781788082317153</v>
@@ -27764,7 +27614,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.21352505396318</v>
+        <v>1.197824141005331</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.756296973002228</v>
@@ -27853,7 +27703,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.214763347159652</v>
+        <v>1.203005263489772</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.913286067298532</v>
@@ -27942,7 +27792,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.227378377837586</v>
+        <v>1.208436938256294</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.95182999207394</v>
@@ -28031,7 +27881,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.22571190440078</v>
+        <v>1.203972046296636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.9626007268255</v>
@@ -28120,7 +27970,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.233315581297856</v>
+        <v>1.214919629603669</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.983277065458317</v>
@@ -28209,7 +28059,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.248934978012653</v>
+        <v>1.230384494732369</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.921851314961219</v>
@@ -28298,7 +28148,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.275375812629837</v>
+        <v>1.261986927923574</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.858080776146132</v>
@@ -28387,7 +28237,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.319198148545168</v>
+        <v>1.299272694825335</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.838191084448858</v>
@@ -28476,7 +28326,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356076717178147</v>
+        <v>1.340254754851082</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.858451002809672</v>
@@ -28565,7 +28415,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.404829924450155</v>
+        <v>1.376158826632482</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.695043940425802</v>
@@ -28654,7 +28504,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.44220270088553</v>
+        <v>1.414229066692523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.8296592042798</v>
@@ -28743,7 +28593,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.450013102465322</v>
+        <v>1.420714446687347</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.843160362143843</v>
@@ -28832,7 +28682,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.428373060123758</v>
+        <v>1.396682792089586</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.880610976575999</v>
@@ -28921,7 +28771,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.404897754190908</v>
+        <v>1.380415105231831</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.882958440657029</v>
@@ -29010,7 +28860,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.352804659166487</v>
+        <v>1.333624545365359</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.909672487444764</v>
@@ -29099,7 +28949,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.34279797019706</v>
+        <v>1.324680847177142</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.897121462125869</v>
@@ -29188,7 +29038,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.339512867567066</v>
+        <v>1.323181640428057</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.896745571923272</v>
@@ -29277,7 +29127,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337341254397614</v>
+        <v>1.325308375680596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.873280776129678</v>
@@ -29366,7 +29216,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.391023929750866</v>
+        <v>1.380591729341444</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.904627810298364</v>
@@ -29455,7 +29305,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.404165647534845</v>
+        <v>1.392636543313153</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.975515595063058</v>
@@ -29544,7 +29394,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.408165692996635</v>
+        <v>1.401987450831838</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.968528485210008</v>
@@ -29633,7 +29483,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.409740132564659</v>
+        <v>1.403920011640318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.906485412135328</v>
@@ -29722,7 +29572,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.400199288129927</v>
+        <v>1.398185213687517</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.924292896719073</v>
@@ -29811,7 +29661,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.355867213046259</v>
+        <v>1.359981660733687</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.862400145542688</v>
@@ -29900,7 +29750,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.369102004277479</v>
+        <v>1.369860721437223</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.968001836424245</v>
@@ -29989,7 +29839,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.375076492894824</v>
+        <v>1.36998999447585</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.972222699973912</v>
@@ -30078,7 +29928,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.377358398589369</v>
+        <v>1.372228068618521</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.968680079980445</v>
@@ -30167,7 +30017,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.421919903847824</v>
+        <v>1.414533935699379</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.973459881894285</v>
@@ -30256,7 +30106,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.411904761069432</v>
+        <v>1.370145029518127</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.800671289489295</v>
@@ -30345,7 +30195,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.392769768180557</v>
+        <v>1.385727753251073</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.855085094342393</v>
@@ -30434,7 +30284,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391775853958477</v>
+        <v>1.387064633491297</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.88641351774328</v>
@@ -30523,7 +30373,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.416039010112944</v>
+        <v>1.396638455474674</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.916960574346724</v>
@@ -30612,7 +30462,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.370181644681928</v>
+        <v>1.357855938620014</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.945648168732389</v>
@@ -30701,7 +30551,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.354502646903115</v>
+        <v>1.341487691620943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.952884096519114</v>
@@ -30790,7 +30640,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.351399052855865</v>
+        <v>1.335830124848145</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.954484808406398</v>
@@ -30879,7 +30729,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.357060680170104</v>
+        <v>1.340187458811962</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.919451379398928</v>
@@ -30968,7 +30818,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.355845643011145</v>
+        <v>1.337425129671774</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.9596384648211</v>
@@ -31057,7 +30907,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.36545747987328</v>
+        <v>1.344235359159592</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.962013260947309</v>
@@ -31146,7 +30996,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.389888716043419</v>
+        <v>1.362489836802569</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.942079258820498</v>
@@ -31235,7 +31085,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.330263035484122</v>
+        <v>1.30291202984179</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.981323650994822</v>
@@ -31324,7 +31174,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.330552955877099</v>
+        <v>1.305623963843311</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.981650591658727</v>
@@ -31413,7 +31263,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.317277075287947</v>
+        <v>1.295415174898519</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.996779303109669</v>
@@ -31502,7 +31352,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.325067772916074</v>
+        <v>1.299962879267587</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.855351825449756</v>
@@ -31591,7 +31441,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.338258067023046</v>
+        <v>1.315563429291723</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.777391669128224</v>
@@ -31680,7 +31530,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.316232834421951</v>
+        <v>1.293972045207874</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.963062080177669</v>
@@ -31769,7 +31619,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.315222665363513</v>
+        <v>1.271823592967295</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.032191349824219</v>
@@ -31858,7 +31708,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.289556538529386</v>
+        <v>1.255567396133981</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.913153092487141</v>
@@ -31947,7 +31797,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.315709310527367</v>
+        <v>1.281308137001209</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.021436397980007</v>
@@ -32036,7 +31886,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.282780786137579</v>
+        <v>1.244656551929506</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.056181710508596</v>
@@ -32125,7 +31975,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.268765927055717</v>
+        <v>1.235060184898093</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.083155808569625</v>
@@ -32214,7 +32064,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.247376501573068</v>
+        <v>1.214294524726223</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.132728709398278</v>
@@ -32500,7 +32350,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.286819661022441</v>
+        <v>1.256237030099401</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.830454846845343</v>
@@ -32589,7 +32439,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.279307140035554</v>
+        <v>1.25207687736718</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.869174913056863</v>
@@ -32678,7 +32528,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.237829110772142</v>
+        <v>1.211457473660225</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.870595483016214</v>
@@ -32767,7 +32617,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.214100588808059</v>
+        <v>1.176255442162533</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.961524776099971</v>
@@ -32856,7 +32706,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.195646975276375</v>
+        <v>1.168863247038339</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.881775245745803</v>
@@ -32945,7 +32795,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.206231867986656</v>
+        <v>1.177119953684086</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.784156584228498</v>
@@ -33034,7 +32884,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.192063616984915</v>
+        <v>1.165493851907154</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.923576926800932</v>
@@ -33123,7 +32973,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.193135685767931</v>
+        <v>1.164238302035081</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.985754241128655</v>
@@ -33212,7 +33062,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.189012761452611</v>
+        <v>1.155845373663018</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.96387553236844</v>
@@ -33301,7 +33151,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.182129515151759</v>
+        <v>1.153946582394666</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.012720152670656</v>
@@ -33390,7 +33240,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.172004275426781</v>
+        <v>1.143281164345838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.039983179192685</v>
@@ -33479,7 +33329,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.16826158391388</v>
+        <v>1.139290444326615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.062619360448081</v>
@@ -33568,7 +33418,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.149700866339929</v>
+        <v>1.120302334585405</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.074253675180553</v>
@@ -33657,7 +33507,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.143321239284258</v>
+        <v>1.113669363547422</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.072642572432267</v>
@@ -33746,7 +33596,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.140043250119758</v>
+        <v>1.113064359522336</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.025541373011123</v>
@@ -33835,7 +33685,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.143634096466918</v>
+        <v>1.116965741533808</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.990659060033321</v>
@@ -33924,7 +33774,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.147564401375218</v>
+        <v>1.121741544632008</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.714707208072846</v>
@@ -34013,7 +33863,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.163224048519306</v>
+        <v>1.138484770821972</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.690450854444046</v>
@@ -34102,7 +33952,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.152413290370748</v>
+        <v>1.132392283168571</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.828568997839826</v>
@@ -34191,7 +34041,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.156880857048346</v>
+        <v>1.130994683504953</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.830615049836656</v>
@@ -34280,7 +34130,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.158745727414099</v>
+        <v>1.12930033980824</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.869204293947217</v>
@@ -34369,7 +34219,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.156709890194116</v>
+        <v>1.130831633440875</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.851494400498173</v>
@@ -34458,7 +34308,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.161161909237504</v>
+        <v>1.135142744564602</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.78035159614619</v>
@@ -34547,7 +34397,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.176161298446576</v>
+        <v>1.158825564629833</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.731709277841945</v>
@@ -34636,7 +34486,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.20365139819484</v>
+        <v>1.18195891709777</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.679475372046737</v>
@@ -34725,7 +34575,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.246329437834716</v>
+        <v>1.23194252761131</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.692698140784334</v>
@@ -34814,7 +34664,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.298198251568835</v>
+        <v>1.271356234329621</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.558241891416342</v>
@@ -34903,7 +34753,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.337371960264045</v>
+        <v>1.314056294527566</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.645753938431226</v>
@@ -34992,7 +34842,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.346626409513043</v>
+        <v>1.321001626227011</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.662729155280556</v>
@@ -35081,7 +34931,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.331493887664095</v>
+        <v>1.301323123334566</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.713071019225838</v>
@@ -35170,7 +35020,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.309717156611353</v>
+        <v>1.284108702827835</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.724743321435172</v>
@@ -35259,7 +35109,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.266003477503064</v>
+        <v>1.241644599342697</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.768571128910763</v>
@@ -35348,7 +35198,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.259564136452956</v>
+        <v>1.236619725831877</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.7662001191367</v>
@@ -35437,7 +35287,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.26030000450578</v>
+        <v>1.237379861574289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.776848718927888</v>
@@ -35526,7 +35376,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.255043028652615</v>
+        <v>1.23419799005556</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.768594347021775</v>
@@ -35615,7 +35465,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.29474875005181</v>
+        <v>1.27668811036998</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.75454983968636</v>
@@ -35704,7 +35554,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.315113847303597</v>
+        <v>1.295863511470836</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.811478841920174</v>
@@ -35793,7 +35643,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.332545351082339</v>
+        <v>1.315946189180135</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.824831910756454</v>
@@ -35882,7 +35732,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.331150167681524</v>
+        <v>1.311938918647087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.766173165466411</v>
@@ -35971,7 +35821,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.325480652384334</v>
+        <v>1.307355730678745</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.784691543795148</v>
@@ -36060,7 +35910,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.273098383743209</v>
+        <v>1.261844474172396</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.71524529686729</v>
@@ -36149,7 +35999,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.286406921881621</v>
+        <v>1.274348943056998</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.82418856877985</v>
@@ -36238,7 +36088,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.293641995309051</v>
+        <v>1.282488900552621</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.831877895156434</v>
@@ -36327,7 +36177,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.303379943180417</v>
+        <v>1.295218123340691</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.84093524145831</v>
@@ -36416,7 +36266,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.357051989470988</v>
+        <v>1.347771727890867</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.843667501622333</v>
@@ -36505,7 +36355,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.348265156299582</v>
+        <v>1.305350655304121</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.692019030494501</v>
@@ -36594,7 +36444,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.322130582592655</v>
+        <v>1.316082423575202</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.7407713584446</v>
@@ -36683,7 +36533,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.322928214539415</v>
+        <v>1.316912812263072</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.776482589114718</v>
@@ -36772,7 +36622,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.351888877351245</v>
+        <v>1.329627984034675</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.798398780651225</v>
@@ -36861,7 +36711,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.307205055462577</v>
+        <v>1.291953453755558</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.828787102601208</v>
@@ -36950,7 +36800,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.295500440619062</v>
+        <v>1.281365489837571</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.853612061961537</v>
@@ -37039,7 +36889,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.293123477213485</v>
+        <v>1.276832494353273</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.859710689627075</v>
@@ -37128,7 +36978,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.300891334516395</v>
+        <v>1.284279884880932</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.826653681528775</v>
@@ -37217,7 +37067,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.304265221153019</v>
+        <v>1.287215296041536</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.891125369467727</v>
@@ -37306,7 +37156,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.317323683727547</v>
+        <v>1.297102939641692</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.882059349848465</v>
@@ -37395,7 +37245,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.340839628303896</v>
+        <v>1.31675122221716</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.86683594016186</v>
@@ -37484,7 +37334,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.288504536051928</v>
+        <v>1.261726542272174</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.904067948894304</v>
@@ -37573,7 +37423,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.285906865542166</v>
+        <v>1.259137085950802</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.913625899545785</v>
@@ -37662,7 +37512,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.258658270034908</v>
+        <v>1.234173310398952</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.899055328081262</v>
@@ -37751,7 +37601,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.257418944784488</v>
+        <v>1.229936455229193</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.747980837219758</v>
@@ -37840,7 +37690,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.265838343925959</v>
+        <v>1.240566611916142</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.703360761210155</v>
@@ -37929,7 +37779,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.251048808260238</v>
+        <v>1.225203005255639</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.873606671118069</v>
@@ -38018,7 +37868,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.262420603819198</v>
+        <v>1.214020876409594</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.945663380780729</v>
@@ -38107,7 +37957,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.228944209192841</v>
+        <v>1.19134443258884</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.833543201227914</v>
@@ -38196,7 +38046,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.256806467771586</v>
+        <v>1.221570799460238</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.932091238087591</v>
@@ -38285,7 +38135,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.223908291342057</v>
+        <v>1.184076213782626</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.981503791772876</v>
@@ -38374,7 +38224,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.205445365648969</v>
+        <v>1.171093968117484</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.000328984944235</v>
@@ -38463,7 +38313,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.184436825006833</v>
+        <v>1.150776434564214</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.036204907985491</v>
@@ -38749,7 +38599,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.316502552106403</v>
+        <v>1.291904469892612</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.973020290044917</v>
@@ -38838,7 +38688,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.309125191841775</v>
+        <v>1.286334927644667</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.999058607921075</v>
@@ -38927,7 +38777,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.281470422918649</v>
+        <v>1.256469736419346</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.017585871201172</v>
@@ -39016,7 +38866,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.256500773656876</v>
+        <v>1.222747789097355</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.065099251277518</v>
@@ -39105,7 +38955,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.23932388967314</v>
+        <v>1.21582354760694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.952415712765329</v>
@@ -39194,7 +39044,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.251441114862783</v>
+        <v>1.223840573167051</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.842990440476943</v>
@@ -39283,7 +39133,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.22964239632063</v>
+        <v>1.204954737899203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.997853870874752</v>
@@ -39372,7 +39222,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.226356674991069</v>
+        <v>1.200743402175872</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.066985148305294</v>
@@ -39461,7 +39311,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.218377200435482</v>
+        <v>1.188125992388044</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.043565850922718</v>
@@ -39550,7 +39400,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.206307473637358</v>
+        <v>1.181047118369467</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074779269891531</v>
@@ -39639,7 +39489,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.193402248693202</v>
+        <v>1.167816312229939</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.09507168700972</v>
@@ -39728,7 +39578,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.188836714737544</v>
+        <v>1.161772255412068</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.093869748479724</v>
@@ -39817,7 +39667,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.172057862632062</v>
+        <v>1.145357655350702</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.125994438084692</v>
@@ -39906,7 +39756,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.166430039306557</v>
+        <v>1.141087186526965</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.119499661884418</v>
@@ -39995,7 +39845,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.167498649239544</v>
+        <v>1.144632469557983</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.058400394248087</v>
@@ -40084,7 +39934,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.174257908195381</v>
+        <v>1.151134594594275</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.043945929180841</v>
@@ -40173,7 +40023,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.183485790753337</v>
+        <v>1.162180596448633</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.768873256875513</v>
@@ -40262,7 +40112,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.201556908629455</v>
+        <v>1.179629010132021</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.742847619110923</v>
@@ -40351,7 +40201,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.20084667664352</v>
+        <v>1.18352686208682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.903310922087209</v>
@@ -40440,7 +40290,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.208334991443675</v>
+        <v>1.184262539115778</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.927613183501876</v>
@@ -40529,7 +40379,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.208964779635553</v>
+        <v>1.182865899933543</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.952782730297027</v>
@@ -40618,7 +40468,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.218169397344802</v>
+        <v>1.193740178103258</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.962390347487865</v>
@@ -40707,7 +40557,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.229083453744827</v>
+        <v>1.205096489934606</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.906094626420438</v>
@@ -40796,7 +40646,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.250955513061514</v>
+        <v>1.233166086075088</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.852199210301565</v>
@@ -40885,7 +40735,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.285305670376444</v>
+        <v>1.261453627264572</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.801172390601861</v>
@@ -40974,7 +40824,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.322026994681554</v>
+        <v>1.301587634339499</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.838833018188042</v>
@@ -41063,7 +40913,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.369250869371649</v>
+        <v>1.339555545013555</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.681668828265843</v>
@@ -41152,7 +41002,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.400402268821174</v>
+        <v>1.371336333768461</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.797681581850928</v>
@@ -41241,7 +41091,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.401980450480297</v>
+        <v>1.372048601000338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.828810316038691</v>
@@ -41330,7 +41180,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.383071086115179</v>
+        <v>1.348922469136027</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.843890344888459</v>
@@ -41419,7 +41269,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.369827521134912</v>
+        <v>1.341649861508899</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.861167746013866</v>
@@ -41508,7 +41358,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.324481130257333</v>
+        <v>1.300021939358579</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.87956264109407</v>
@@ -41597,7 +41447,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.31814329033482</v>
+        <v>1.296941571025813</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.884832220209143</v>
@@ -41686,7 +41536,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.316585953372846</v>
+        <v>1.297135499353425</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.880257374282893</v>
@@ -41775,7 +41625,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.311946097656436</v>
+        <v>1.292834729575576</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.852291579465483</v>
@@ -41864,7 +41714,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.35814945574192</v>
+        <v>1.338321946839191</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.920439426415704</v>
@@ -41953,7 +41803,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.371949655639366</v>
+        <v>1.354003192728441</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.921143258127075</v>
@@ -42042,7 +41892,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.377252338273082</v>
+        <v>1.361205602807869</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.931588384149752</v>
@@ -42131,7 +41981,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.379942841734097</v>
+        <v>1.363637286792498</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.870735113636127</v>
@@ -42220,7 +42070,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.373443686192671</v>
+        <v>1.359608020178542</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.917697093703482</v>
@@ -42309,7 +42159,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.329358640806316</v>
+        <v>1.323163814310254</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.827930665799436</v>
@@ -42398,7 +42248,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.339848204854857</v>
+        <v>1.334256462272627</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.945797789000058</v>
@@ -42487,7 +42337,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.350620145244015</v>
+        <v>1.341155860878376</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.951043152259219</v>
@@ -42576,7 +42426,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.359872674573475</v>
+        <v>1.351597093587806</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.959809554116648</v>
@@ -42665,7 +42515,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.405611568982741</v>
+        <v>1.392906306301149</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.966599079131902</v>
@@ -42754,7 +42604,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.393698839342323</v>
+        <v>1.347746120616922</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.793587936014568</v>
@@ -42843,7 +42693,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.375206456185647</v>
+        <v>1.361712031869161</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.857850305757979</v>
@@ -42932,7 +42782,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.375248128367416</v>
+        <v>1.362484159944489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.879709266195549</v>
@@ -43021,7 +42871,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.399614466017312</v>
+        <v>1.368969872706621</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.907623593122218</v>
@@ -43110,7 +42960,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.363557369966942</v>
+        <v>1.340206361750326</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.918911025741541</v>
@@ -43199,7 +43049,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.346577548790614</v>
+        <v>1.324307230805623</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.950682882374589</v>
@@ -43288,7 +43138,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.346413990531428</v>
+        <v>1.319754357649692</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.957256312328792</v>
@@ -43377,7 +43227,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.354752617540743</v>
+        <v>1.3288238766208</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.92383106765256</v>
@@ -43466,7 +43316,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.355169171371321</v>
+        <v>1.326322820725866</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.955991713272608</v>
@@ -43555,7 +43405,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.36376417712423</v>
+        <v>1.33315551777599</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.933946006174561</v>
@@ -43644,7 +43494,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.392751016900567</v>
+        <v>1.35624567864586</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.94183720724185</v>
@@ -43733,7 +43583,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.332486669976365</v>
+        <v>1.297972683687312</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.997201663932456</v>
@@ -43822,7 +43672,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.33138613557674</v>
+        <v>1.298006656157808</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.001425363427088</v>
@@ -43911,7 +43761,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.306337733160458</v>
+        <v>1.276611264103819</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.000627662667735</v>
@@ -44000,7 +43850,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.310355919947728</v>
+        <v>1.278606653857318</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.861398252878392</v>
@@ -44089,7 +43939,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.322385864774985</v>
+        <v>1.292312147344019</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.783268340015322</v>
@@ -44178,7 +44028,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.304525959646579</v>
+        <v>1.276644791588414</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.940862967464518</v>
@@ -44267,7 +44117,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.305077691486344</v>
+        <v>1.25937974565251</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.037708285001467</v>
@@ -44356,7 +44206,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.281547884614656</v>
+        <v>1.246106581592906</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.931067254814443</v>
@@ -44445,7 +44295,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.303554324007507</v>
+        <v>1.269608208700212</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.033564464158697</v>
@@ -44534,7 +44384,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.273462427062479</v>
+        <v>1.236408671260397</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.064176505166033</v>
@@ -44623,7 +44473,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.258546195956666</v>
+        <v>1.226159038624586</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.075471465576225</v>
@@ -44712,7 +44562,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.239231337850273</v>
+        <v>1.208968864840124</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.140011230903124</v>
